--- a/storage/app/def.xlsx
+++ b/storage/app/def.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otnieloo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otnieloo\Desktop\EsaiOtomatisLar\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -180,9 +180,6 @@
     <t>karena massa kayu lebih ringan daripada air</t>
   </si>
   <si>
-    <t>Rotasi bumi adalah bumi berputar pada porosnya selama kurag lebih 24 jam. Rotasi bumi berakibat, sebagian bumi yang terkena sinar matahari, disebut siang, dan sebagian tidak terkena sinar matahari, disebut malam.</t>
-  </si>
-  <si>
     <t>Perubahan wujud dari padat menjadi gas.</t>
   </si>
   <si>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>karena bumi memutari matahari</t>
+  </si>
+  <si>
+    <t>bumi berputar pada porosnya</t>
   </si>
 </sst>
 </file>
@@ -943,9 +943,9 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -984,16 +984,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44211.729263182875</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44211.733176018519</v>
       </c>
@@ -1030,10 +1030,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44211.740133518513</v>
       </c>
@@ -1041,19 +1041,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44211.742248969909</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44211.743494722221</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44211.748136909722</v>
       </c>
@@ -1110,10 +1110,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44211.759312870374</v>
       </c>
@@ -1130,15 +1130,15 @@
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44211.790664895831</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -1150,7 +1150,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1158,22 +1158,22 @@
         <v>44211.791498599538</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44211.795686550926</v>
       </c>
@@ -1190,10 +1190,10 @@
         <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44211.797738483801</v>
       </c>
@@ -1213,12 +1213,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44211.79911521991</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
@@ -1238,70 +1238,70 @@
         <v>44211.8075068287</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44211.813821620366</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44211.814990717598</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44211.815106817128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>50</v>
@@ -1310,187 +1310,187 @@
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44211.815677303239</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44211.816781724541</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44211.817908206023</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44211.819407743053</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44211.821221678241</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44211.821241712962</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44211.823395486106</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44211.824329560186</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44211.824706666666</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1498,99 +1498,99 @@
         <v>44211.825924745368</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44211.827162384259</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44211.829924432866</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44211.83350518519</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44211.842798379628</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1598,42 +1598,42 @@
         <v>44211.847494710644</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44211.85447387732</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1641,142 +1641,142 @@
         <v>44211.871311608797</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44211.871355393523</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44211.872718333332</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44211.874140636573</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44211.87667636574</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44211.879279502318</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44211.888182187497</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44211.904157002311</v>
       </c>
@@ -1793,46 +1793,46 @@
         <v>43</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44211.944198275465</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>13</v>

--- a/storage/app/def.xlsx
+++ b/storage/app/def.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="200">
   <si>
     <t>Timestamp</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Karena massa jenis kayu lebih kecil dibandingkan massa jenis air</t>
   </si>
   <si>
-    <t>karena bumi mengalami rotasi.</t>
-  </si>
-  <si>
     <t>tidak tahu</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
     <t xml:space="preserve"> proses perkembangan hewan yang melibatkan perubahan bentuk fisik</t>
   </si>
   <si>
-    <t>proses perkembangan biologi pada hewan yang melibatkan perubahan penampilan fisik (bentuk) dan/atau struktur setelah kelahiran atau penetasan.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> siklus pembentukan hewan dari telur hingga menjadi bentuk yg sempurna</t>
   </si>
   <si>
@@ -558,9 +552,6 @@
     <t>kondisi di mana zat benda padat berubah menjadi gas</t>
   </si>
   <si>
-    <t>peristiwa perubahan wujud benda padat menjadi gas.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> perubahan zat dari benda padat menjadi gas</t>
   </si>
   <si>
@@ -622,12 +613,6 @@
   </si>
   <si>
     <t>agar ketika rel memuai tidak bertabrakkan dengan rel di sekitarnya.</t>
-  </si>
-  <si>
-    <t>karena kalau tidak diberi ruang pemuaian, maka rel tersebut akan melengkung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">karena massa jenis pada kayu lebih kecil dari air. </t>
   </si>
   <si>
     <t>karena bumi memutari matahari</t>
@@ -643,7 +628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -674,22 +659,6 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -711,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -720,9 +689,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,11 +907,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -984,13 +950,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1030,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1041,16 +1007,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1110,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1130,7 +1096,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1138,7 +1104,7 @@
         <v>44211.790664895831</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -1150,7 +1116,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1158,19 +1124,19 @@
         <v>44211.791498599538</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1190,7 +1156,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1218,7 +1184,7 @@
         <v>44211.79911521991</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
@@ -1238,19 +1204,19 @@
         <v>44211.8075068287</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1267,7 +1233,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>57</v>
@@ -1298,7 +1264,7 @@
         <v>44211.815106817128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>62</v>
@@ -1321,7 +1287,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>65</v>
@@ -1347,10 +1313,10 @@
         <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1358,7 +1324,7 @@
         <v>44211.817908206023</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>71</v>
@@ -1458,7 +1424,7 @@
         <v>44211.824329560186</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>93</v>
@@ -1478,10 +1444,10 @@
         <v>44211.824706666666</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>97</v>
@@ -1490,7 +1456,7 @@
         <v>98</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1498,7 +1464,7 @@
         <v>44211.825924745368</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>99</v>
@@ -1521,7 +1487,7 @@
         <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>104</v>
@@ -1558,10 +1524,10 @@
         <v>44211.83350518519</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>112</v>
@@ -1593,248 +1559,225 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>44211.847494710644</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="9" t="s">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44211.85447387732</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44211.85447387732</v>
+        <v>44211.871311608797</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>123</v>
+        <v>164</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44211.871311608797</v>
+        <v>44211.871355393523</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44211.872718333332</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44211.874140636573</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44211.87667636574</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>44211.871355393523</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44211.872718333332</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>44211.874140636573</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44211.87667636574</v>
+        <v>44211.879279502318</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44211.879279502318</v>
+        <v>44211.888182187497</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44211.888182187497</v>
+        <v>44211.904157002311</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44211.944198275465</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>44211.904157002311</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>44211.944198275465</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/storage/app/def.xlsx
+++ b/storage/app/def.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="204">
   <si>
     <t>Timestamp</t>
   </si>
@@ -48,27 +48,15 @@
     <t xml:space="preserve">Proses dari benda padat menjadi uap </t>
   </si>
   <si>
-    <t>Karena terjadi pemuaian pada siang hari, jika pemuaian terjadi maka masih ada tempat. Sehingga rel tidak bengkok.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perubahan penampilan </t>
-  </si>
-  <si>
     <t>Karena adanya rotasi bumi</t>
   </si>
   <si>
-    <t>Perubahan wujud dari padat menjadi gas</t>
-  </si>
-  <si>
     <t>Karena massa jenis kayu lebih kecil daripada air</t>
   </si>
   <si>
     <t>karena saat panas rel kereta memuai</t>
   </si>
   <si>
-    <t>perkembangan biologi pada hewan</t>
-  </si>
-  <si>
     <t xml:space="preserve">karena bumi berotasi </t>
   </si>
   <si>
@@ -81,24 +69,9 @@
     <t>perubahan dari padat ke gas</t>
   </si>
   <si>
-    <t>Karena mencegah pemuaian saat siang hari dan mencegah penyusutan saat malam hari</t>
-  </si>
-  <si>
-    <t>Suatu proses perkembangan pada pertumbuhan sel</t>
-  </si>
-  <si>
-    <t>Karena matahari dan bumi melakukan rotasi maka terjadilah siang dan malam</t>
-  </si>
-  <si>
-    <t>Perubahan wujud padat ke wujud gas</t>
-  </si>
-  <si>
     <t>Karena massa jenis kayu kecil</t>
   </si>
   <si>
-    <t>Agar saat terjadi pemuaian rel tidak bengkok</t>
-  </si>
-  <si>
     <t>Perubahan bentuk fisik</t>
   </si>
   <si>
@@ -114,33 +87,18 @@
     <t>Proses perubahan bentuk pada hewan yang melibatkan perubahan fisik</t>
   </si>
   <si>
-    <t>Karena bumi mengelilingi matahari dan bumi berputar pada porosnya (karena bumi melakukan revolusi &amp; rotasi)</t>
-  </si>
-  <si>
     <t>untuk mengantisipasi terjadinya pemuaian di siang hari</t>
   </si>
   <si>
-    <t>Perkembangan biologi pada hewan</t>
-  </si>
-  <si>
     <t>Adanya rotasi bumi</t>
   </si>
   <si>
     <t>perubahan wujud benda dari gas menjadi benda cair</t>
   </si>
   <si>
-    <t>Perubahan dari telur, ulat, kepompong, kupu-kupu, kasian deh lu *sambil nyanyi. Intinya suatu perubahan dari mahluk hidup untuk lebih sempurna</t>
-  </si>
-  <si>
-    <t>Karena bumi berputar pada porosnya, mengelilingi matahari/sebaliknya</t>
-  </si>
-  <si>
     <t>Proses penguapan pada benda padat yang menjadi uap?</t>
   </si>
   <si>
-    <t xml:space="preserve">Perubahan penampilan/bentuk/struktur biologis dalam masa perkembangan hewan </t>
-  </si>
-  <si>
     <t>Perubahan benda padat menjadi gas</t>
   </si>
   <si>
@@ -162,9 +120,6 @@
     <t>Karena bumi berotasi</t>
   </si>
   <si>
-    <t>Zat padat berubah menjadi gas</t>
-  </si>
-  <si>
     <t>Karena beratnya lebih ringan</t>
   </si>
   <si>
@@ -174,15 +129,9 @@
     <t>karena bumi berotasi</t>
   </si>
   <si>
-    <t>perubahan benda padat menjadi gas</t>
-  </si>
-  <si>
     <t>karena massa kayu lebih ringan daripada air</t>
   </si>
   <si>
-    <t>Perubahan wujud dari padat menjadi gas.</t>
-  </si>
-  <si>
     <t>Karena supaya tidak ada tabrakan</t>
   </si>
   <si>
@@ -201,9 +150,6 @@
     <t>perkembangan bentuk hewan</t>
   </si>
   <si>
-    <t>perubahan dari benda padat menjadi gas</t>
-  </si>
-  <si>
     <t>karena massa jenis kayu kecil</t>
   </si>
   <si>
@@ -213,30 +159,9 @@
     <t>massa jenis kayu lebih ringan daripada massa jenis air</t>
   </si>
   <si>
-    <t>Menghindari pemuaian pada siang hari.</t>
-  </si>
-  <si>
-    <t>Adanya rotasi bumi.</t>
-  </si>
-  <si>
-    <t>Perubahan dari zat padat ke gas.</t>
-  </si>
-  <si>
-    <t>Karena kayu memiliki serat.</t>
-  </si>
-  <si>
     <t xml:space="preserve">mengantisipasi pemuaian pada rel kereta api </t>
   </si>
   <si>
-    <t>perubahan wujud hidup suatu mahluk hidup dari telur, ulat, pupa, hingga kupu-kupu dewasa</t>
-  </si>
-  <si>
-    <t>karena bumi berotasi (berputar pada porosnya), sehingga seolah matahari berpindah dari timur ke barat</t>
-  </si>
-  <si>
-    <t>Proses perubahan dari larva sampai jadi kupu kupu</t>
-  </si>
-  <si>
     <t>Bumi berputar pada porosnya</t>
   </si>
   <si>
@@ -261,12 +186,6 @@
     <t xml:space="preserve">Karena pada siang hari rel besi memuai sehingga perlu tempat untuk jadi panjang </t>
   </si>
   <si>
-    <t>Proses perkembangan pada hewan</t>
-  </si>
-  <si>
-    <t>Perubahan bentuk wujud dari padat menjadi gas</t>
-  </si>
-  <si>
     <t>Gaya apung&gt; Dari gaya gravitasi</t>
   </si>
   <si>
@@ -291,42 +210,18 @@
     <t>Siklus perubahan suatu makhluk hidup di mana fisik pada fase larvanya berbeda dengan fisik pada fase dewasanya</t>
   </si>
   <si>
-    <t>Karena bumi melakukan rotasi sehingga terjadi perubahan siang dan malam</t>
-  </si>
-  <si>
-    <t>Perubahan fase jenis benda dari padat ke uap</t>
-  </si>
-  <si>
     <t>Karena massa jenis kayu lebih kecil daripada massa jenis air</t>
   </si>
   <si>
-    <t>perubahan bentuk tubuh pada pertumbuhan.</t>
-  </si>
-  <si>
-    <t>karena bumi berputar pada porosnya.</t>
-  </si>
-  <si>
-    <t>perubahan benda padat menjadi uap.</t>
-  </si>
-  <si>
-    <t>kayu akan menyerap air.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karena bumi berotasi </t>
   </si>
   <si>
     <t>Benda padat ke gas</t>
   </si>
   <si>
-    <t>pertumbuhan suatu makhluk hidup hewan yang memengaruhi bentuk fisiknya</t>
-  </si>
-  <si>
     <t>karena rotasi bumi</t>
   </si>
   <si>
-    <t>perubahan wujud partikel padat menjadi gas</t>
-  </si>
-  <si>
     <t>massa jenis air lebih besar daripada massa jenis kayu</t>
   </si>
   <si>
@@ -354,30 +249,18 @@
     <t>berubahnya benda dari padat menjadi gas</t>
   </si>
   <si>
-    <t>karena massa jenis air lebih besar daripada kayu, dan kerapatan air juga lebih rapat daripada kayu</t>
-  </si>
-  <si>
     <t>Karena bumi berotasi ketika mengelilingi matahari</t>
   </si>
   <si>
-    <t>Proses perubahan wujud dari padat menjadi gas</t>
-  </si>
-  <si>
     <t>Karena massa air lebih besar daripada kayu</t>
   </si>
   <si>
     <t>Karena adanya proses pemuaian jika terkena panas di siang hari</t>
   </si>
   <si>
-    <t>Perubahan bentuk tubuh pada hewan</t>
-  </si>
-  <si>
     <t>Karena pergerakan rotasi bumi pada porosnya</t>
   </si>
   <si>
-    <t>Perubahan wujud zat padat menjadi gas</t>
-  </si>
-  <si>
     <t>Karena massa jenis kayu lebih kecil dibandingkan massa jenis air</t>
   </si>
   <si>
@@ -390,42 +273,15 @@
     <t>rotasi bumi</t>
   </si>
   <si>
-    <t>perubahan wujud dari padat menjadi gas</t>
-  </si>
-  <si>
     <t>kayu memiliki massa jenis lebih ringan daripada air</t>
   </si>
   <si>
-    <t>agar relnya tidak membengkok ketika terjadi penambahan zat</t>
-  </si>
-  <si>
-    <t>karena massa kayu lebih ringan dibandingkan massa air.</t>
-  </si>
-  <si>
-    <t>memudahkan terjadinya pemuaian.</t>
-  </si>
-  <si>
-    <t>proses perkembangan biologi pada hewan berupa perubahan bentuk dari lahir hingga dewasa.</t>
-  </si>
-  <si>
-    <t>karena bumi berputar, sehingga bagian yang terkena sinar matahari disebut siang dan bagain yang tidak terkena sinar matahari disebut malam.</t>
-  </si>
-  <si>
-    <t>perubahan wujud padat menjadi gas.</t>
-  </si>
-  <si>
-    <t>massa jenis kayu lebih kecil daripada massa jenis air.</t>
-  </si>
-  <si>
     <t>Untuk menghindari pemuaian di siang hari</t>
   </si>
   <si>
     <t xml:space="preserve">Perkembangan hewan yang menyebabkan berubahnya fisik </t>
   </si>
   <si>
-    <t>Karena bumi berotasi mengelilingi matahari. Bagian bumi yang terkena cahaya matahari akan mengalami siang, sedangkan bagian bumi yang tidak terkena cahaya akan mengalami malam</t>
-  </si>
-  <si>
     <t>Perubahan wujud dari bentuk padat menjadi gas</t>
   </si>
   <si>
@@ -438,21 +294,9 @@
     <t>perubahan fisik pada hewan saat mengalami masa pertumbuhan</t>
   </si>
   <si>
-    <t>karena adanya rotasi bumi,yaitu bumi berputar pada porosnya</t>
-  </si>
-  <si>
-    <t>perubahan wujud benda dari padat menjadi gas</t>
-  </si>
-  <si>
     <t>karena gaya apung kayu lebih besar daripada gaya gravitasi</t>
   </si>
   <si>
-    <t>Karena pada rel kereta api dapat terjadi pemuaian, maka hal itu dibuat agar saat memuai rel kereta tidak melengkung keatas dan membahayakan kereta yang melintas</t>
-  </si>
-  <si>
-    <t>Karena adanya rotasi bumi dari pusatnya, daerah yang terpapar sinar matahari menjadi siang, dan yang tidak terkena cahaya matahari adalah malam</t>
-  </si>
-  <si>
     <t>Karena adanya perbedaan massa jenis</t>
   </si>
   <si>
@@ -477,63 +321,30 @@
     <t xml:space="preserve">Perubahan bentuk dari padat ke gas </t>
   </si>
   <si>
-    <t>karena rel kereta mengalami pemuaian yang bisa bikin rel melengkung dan membahayakan perjalanan kereta</t>
-  </si>
-  <si>
-    <t>untuk mengantisipasi jika rel memuai pada siang hari</t>
-  </si>
-  <si>
-    <t>karena saat panas siang hari besi pada rel akan memuai. ruang yang renggang diperlukan saat besi tersebut memuai</t>
-  </si>
-  <si>
-    <t>karena jika tidak dibuat renggang akan mengakibatkan tidak adanya ruang untuk pemuaian</t>
-  </si>
-  <si>
     <t>agar ketika rel mengalami pemuaian tidak menimbulkan bahaya untuk kereta yang berjalan</t>
   </si>
   <si>
-    <t>gunanya untuk memberi ruang ketika melar saat panas.</t>
-  </si>
-  <si>
     <t>Karena rel kereta yg terkena panas matahari nanti akan memuai dan memanjang</t>
   </si>
   <si>
-    <t>Dibuat renggang agar ketika suhu meningkat (krn panas) dan terjadi pemuaian, relnya tidak melengkung keatas</t>
-  </si>
-  <si>
     <t>untuk mencegah pemuaian pada siang hari</t>
   </si>
   <si>
     <t>agar pada saat panas masih ada ruang untuk memuai</t>
   </si>
   <si>
-    <t xml:space="preserve">untuk mengantisipasi pemuaian yang dapat terjadi. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> proses perubahan serangga dari telur hingga dewasa</t>
   </si>
   <si>
-    <t xml:space="preserve"> perubahan bentuk yang terjadi pada kupu kupu dimana tadinya seekor ulat menjadi kupu-kupu.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> perubahan bentuk makhluk hidup di masa pertumbuhannya</t>
   </si>
   <si>
     <t xml:space="preserve"> proses perkembangan hewan yang melibatkan perubahan bentuk fisik</t>
   </si>
   <si>
-    <t xml:space="preserve"> siklus pembentukan hewan dari telur hingga menjadi bentuk yg sempurna</t>
-  </si>
-  <si>
     <t>Perubahan bentuk mahluk hidup yang terdapat fase kepompong</t>
   </si>
   <si>
-    <t>Perubahan pada hewan untuk mencapai kedewasaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suatu proses perkembangan biologi pada hewan yang melibatkan perubahan penampilan fisik dan/atau struktur setelah kelahiran atau penetasan. </t>
-  </si>
-  <si>
     <t>perubahan dari telur sampai kupu-kupu</t>
   </si>
   <si>
@@ -543,12 +354,6 @@
     <t xml:space="preserve">  suatu keadaan yang tidak ada oksigen yang lama kelamaan akan habis</t>
   </si>
   <si>
-    <t xml:space="preserve">  perubahan wujud dari padat menjadi gas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perubahan wujud dari padat ke gas </t>
-  </si>
-  <si>
     <t>kondisi di mana zat benda padat berubah menjadi gas</t>
   </si>
   <si>
@@ -585,9 +390,6 @@
     <t xml:space="preserve">massa jenis kayu lebih ringan/kecil dari massa jenis air </t>
   </si>
   <si>
-    <t xml:space="preserve">semakin kecil massa jenisnya dibandingkan dengan air, benda itu akan mengapung diatasnya. </t>
-  </si>
-  <si>
     <t>Karena akan menyerap air sehingga kayu akan mengembang Karena bermuatan air</t>
   </si>
   <si>
@@ -609,16 +411,226 @@
     <t>Karna adanya rotasi bumi</t>
   </si>
   <si>
-    <t>Karena pada siang hari sinar matahari menyebabkan besi rel kereta memuai  menyebabkan rel bengkok.</t>
-  </si>
-  <si>
-    <t>agar ketika rel memuai tidak bertabrakkan dengan rel di sekitarnya.</t>
-  </si>
-  <si>
     <t>karena bumi memutari matahari</t>
   </si>
   <si>
     <t>bumi berputar pada porosnya</t>
+  </si>
+  <si>
+    <t>perubahan wujud hidup suatu mahluk hidup dari telur  ulat  pupa  hingga kupu-kupu dewasa</t>
+  </si>
+  <si>
+    <t>karena massa jenis air lebih besar daripada kayu  dan kerapatan air juga lebih rapat daripada kayu</t>
+  </si>
+  <si>
+    <t>Dibuat renggang agar ketika suhu meningkat (krn panas) dan terjadi pemuaian  relnya tidak melengkung keatas</t>
+  </si>
+  <si>
+    <t>Karena pada rel kereta api dapat terjadi pemuaian  maka hal itu dibuat agar saat memuai rel kereta tidak melengkung keatas dan membahayakan kereta yang melintas</t>
+  </si>
+  <si>
+    <t>karena saat panas siang hari besi pada rel akan memuai  ruang yang renggang diperlukan saat besi tersebut memuai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perubahan wujud dari padat menjadi gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">semakin kecil massa jenisnya dibandingkan dengan air  benda itu akan mengapung diatasnya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menghindari pemuaian pada siang hari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adanya rotasi bumi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perubahan dari zat padat ke gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karena kayu memiliki serat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gunanya untuk memberi ruang ketika melar saat panas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karena bumi berputar pada porosnya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kayu akan menyerap air </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agar ketika rel memuai tidak bertabrakkan dengan rel di sekitarnya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perubahan bentuk yang terjadi pada kupu kupu dimana tadinya seekor ulat menjadi kupu-kupu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karena massa kayu lebih ringan dibandingkan massa air </t>
+  </si>
+  <si>
+    <t xml:space="preserve">memudahkan terjadinya pemuaian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proses perkembangan biologi pada hewan berupa perubahan bentuk dari lahir hingga dewasa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">massa jenis kayu lebih kecil daripada massa jenis air </t>
+  </si>
+  <si>
+    <t xml:space="preserve">untuk mengantisipasi pemuaian yang dapat terjadi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karena mencegah pemuaian saat siang hari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karena rel kereta memuai yang bisa bikin rel melengkung </t>
+  </si>
+  <si>
+    <t>Untuk mengantisipasi jika rel memuai pada siang hari</t>
+  </si>
+  <si>
+    <t>Karena sinar matahari menyebabkan rel kereta memuai  dan melengkung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karena efeknya akan membuat rel melengkung </t>
+  </si>
+  <si>
+    <t>Karena jika pemuaian terjadi maka rel tidak melengkung</t>
+  </si>
+  <si>
+    <t>Agar saat terjadi pemuaian rel tidak melengkung</t>
+  </si>
+  <si>
+    <t>agar relnya tidak melengkung ketika terjadi penambahan zat</t>
+  </si>
+  <si>
+    <t>Suatu proses perkembangan tubuh binatang</t>
+  </si>
+  <si>
+    <t>Intinya suatu perkembangan dari tubuh mahluk hidup untuk lebih sempurna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perubahan bentuk biologis dalam masa perkembangan hewan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perkembangan biologi pada hewan dan perubahan fisik </t>
+  </si>
+  <si>
+    <t>Proses perubahan wujud dari larva sampai jadi kupu kupu</t>
+  </si>
+  <si>
+    <t>Perkembangan tubuh fauna</t>
+  </si>
+  <si>
+    <t>perkembangan biologi pada binatang</t>
+  </si>
+  <si>
+    <t>Perkembangan biologi pada fisik</t>
+  </si>
+  <si>
+    <t>Perubahan atau berkembang fauna</t>
+  </si>
+  <si>
+    <t>Perubahan tubuh pada binatang untuk mencapai kedewasaan</t>
+  </si>
+  <si>
+    <t>Proses perkembangan wujud pada fauna</t>
+  </si>
+  <si>
+    <t>perubahan bentuk tubuh pada binatang</t>
+  </si>
+  <si>
+    <t>pertumbuhan suatu hewan yang memengaruhi bentuk fisiknya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> siklus pembentukan binatang dari telur hingga menjadi bentuk yg sempurna</t>
+  </si>
+  <si>
+    <t>Perubahan bentuk tubuh pada fauna</t>
+  </si>
+  <si>
+    <t>Karena matahari dan bumi melakukan rotasi</t>
+  </si>
+  <si>
+    <t>perputaran bumi</t>
+  </si>
+  <si>
+    <t>Karena bumi berputar pada porosnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karena bumi berputar pada porosnya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karena bumi berotasi (berputar) </t>
+  </si>
+  <si>
+    <t>Karena bumi melakukan rotasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karena bumi berputar </t>
+  </si>
+  <si>
+    <t>karena adanya rotasi bumi pada porosnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karena adanya rotasi bumi dari pusatnya </t>
+  </si>
+  <si>
+    <t>Pergantian wujud dari padat menjadi gas</t>
+  </si>
+  <si>
+    <t>Pergantian wujud padat ke wujud gas</t>
+  </si>
+  <si>
+    <t>Pergantian wujud pada benda padat menjadi gas</t>
+  </si>
+  <si>
+    <t>Zat padat berganti menjadi gas</t>
+  </si>
+  <si>
+    <t>Pergantian bentuk dari padat menjadi gas</t>
+  </si>
+  <si>
+    <t>perubahan bentuk benda padat menjadi gas</t>
+  </si>
+  <si>
+    <t>perubahan bentuk dari benda padat menjadi gas</t>
+  </si>
+  <si>
+    <t>pergantian bentuk benda padat menjadi gas</t>
+  </si>
+  <si>
+    <t>Perubahan bentuk  dari padat menjadi gas</t>
+  </si>
+  <si>
+    <t>Pergantian wujud jenis benda dari padat ke uap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perubahan bentuk benda padat menjadi uap </t>
+  </si>
+  <si>
+    <t>pergantian wujud padat menjadi gas</t>
+  </si>
+  <si>
+    <t>Proses pergantian wujud dari padat menjadi gas</t>
+  </si>
+  <si>
+    <t>perubahan bentuk dari padat menjadi gas</t>
+  </si>
+  <si>
+    <t>Perubahan bentuk zat padat menjadi gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perubahan bentuk padat menjadi gas </t>
+  </si>
+  <si>
+    <t>pergantian wujud benda dari padat menjadi gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pergantian bentuk dari padat menjadi gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pergantian bentuk dari padat ke gas </t>
   </si>
 </sst>
 </file>
@@ -910,8 +922,8 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -950,13 +962,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -964,19 +976,19 @@
         <v>44211.729263182875</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -984,19 +996,19 @@
         <v>44211.733176018519</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1004,19 +1016,19 @@
         <v>44211.740133518513</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1024,19 +1036,19 @@
         <v>44211.742248969909</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1044,19 +1056,19 @@
         <v>44211.743494722221</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1064,19 +1076,19 @@
         <v>44211.748136909722</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1084,19 +1096,19 @@
         <v>44211.759312870374</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1104,19 +1116,19 @@
         <v>44211.790664895831</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1124,19 +1136,19 @@
         <v>44211.791498599538</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1144,19 +1156,19 @@
         <v>44211.795686550926</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1164,19 +1176,19 @@
         <v>44211.797738483801</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1184,19 +1196,19 @@
         <v>44211.79911521991</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1204,19 +1216,19 @@
         <v>44211.8075068287</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1224,19 +1236,19 @@
         <v>44211.813821620366</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1244,19 +1256,19 @@
         <v>44211.814990717598</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1264,19 +1276,19 @@
         <v>44211.815106817128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1284,19 +1296,19 @@
         <v>44211.815677303239</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1304,19 +1316,19 @@
         <v>44211.816781724541</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1324,19 +1336,19 @@
         <v>44211.817908206023</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1344,19 +1356,19 @@
         <v>44211.819407743053</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1364,19 +1376,19 @@
         <v>44211.821221678241</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1384,19 +1396,19 @@
         <v>44211.821241712962</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1404,19 +1416,19 @@
         <v>44211.823395486106</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1424,19 +1436,19 @@
         <v>44211.824329560186</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1444,19 +1456,19 @@
         <v>44211.824706666666</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1464,19 +1476,19 @@
         <v>44211.825924745368</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1484,19 +1496,19 @@
         <v>44211.827162384259</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1504,19 +1516,19 @@
         <v>44211.829924432866</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1524,19 +1536,19 @@
         <v>44211.83350518519</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1544,19 +1556,19 @@
         <v>44211.842798379628</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1564,19 +1576,19 @@
         <v>44211.85447387732</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1584,19 +1596,19 @@
         <v>44211.871311608797</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1604,19 +1616,19 @@
         <v>44211.871355393523</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1624,19 +1636,19 @@
         <v>44211.872718333332</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1644,19 +1656,19 @@
         <v>44211.874140636573</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1664,19 +1676,19 @@
         <v>44211.87667636574</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1684,19 +1696,19 @@
         <v>44211.879279502318</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1704,19 +1716,19 @@
         <v>44211.888182187497</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1724,19 +1736,19 @@
         <v>44211.904157002311</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1744,41 +1756,41 @@
         <v>44211.944198275465</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
